--- a/data/trans_orig/IP16B02-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP16B02-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8DA6677E-4932-4C57-AC6F-BFACA3E207AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9001F1F7-F906-499D-935F-4B0FAD6F3FE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{8EEAEB94-2CA3-4599-AE03-1E8DA708B9AC}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{41EE01E4-1258-4A0B-A120-51D3169AB3CD}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="219">
   <si>
     <t>Menores según si ha consumido medicinas para el dolor y/o para bajar la fiebre recetados por el médico en 2007 (Tasa respuesta: 7,08%)</t>
   </si>
@@ -103,43 +103,43 @@
     <t>85,45%</t>
   </si>
   <si>
-    <t>56,55%</t>
+    <t>58,22%</t>
   </si>
   <si>
     <t>82,71%</t>
   </si>
   <si>
-    <t>53,52%</t>
+    <t>44,4%</t>
   </si>
   <si>
     <t>84,28%</t>
   </si>
   <si>
-    <t>63,7%</t>
-  </si>
-  <si>
-    <t>95,99%</t>
+    <t>63,36%</t>
+  </si>
+  <si>
+    <t>95,82%</t>
   </si>
   <si>
     <t>14,55%</t>
   </si>
   <si>
-    <t>43,45%</t>
+    <t>41,78%</t>
   </si>
   <si>
     <t>17,29%</t>
   </si>
   <si>
-    <t>46,48%</t>
+    <t>55,6%</t>
   </si>
   <si>
     <t>15,72%</t>
   </si>
   <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>36,3%</t>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>36,64%</t>
   </si>
   <si>
     <t>Secundarios</t>
@@ -148,55 +148,55 @@
     <t>89,97%</t>
   </si>
   <si>
-    <t>78,71%</t>
-  </si>
-  <si>
-    <t>96,32%</t>
+    <t>79,48%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
   </si>
   <si>
     <t>78,99%</t>
   </si>
   <si>
-    <t>63,31%</t>
-  </si>
-  <si>
-    <t>89,76%</t>
+    <t>64,78%</t>
+  </si>
+  <si>
+    <t>90,68%</t>
   </si>
   <si>
     <t>84,95%</t>
   </si>
   <si>
-    <t>76,21%</t>
-  </si>
-  <si>
-    <t>91,0%</t>
+    <t>77,03%</t>
+  </si>
+  <si>
+    <t>91,55%</t>
   </si>
   <si>
     <t>10,03%</t>
   </si>
   <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>21,29%</t>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>20,52%</t>
   </si>
   <si>
     <t>21,01%</t>
   </si>
   <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>36,69%</t>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>35,22%</t>
   </si>
   <si>
     <t>15,05%</t>
   </si>
   <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>23,79%</t>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>22,97%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -205,514 +205,496 @@
     <t>88,02%</t>
   </si>
   <si>
-    <t>68,37%</t>
-  </si>
-  <si>
-    <t>96,22%</t>
+    <t>69,61%</t>
+  </si>
+  <si>
+    <t>96,2%</t>
   </si>
   <si>
     <t>82,95%</t>
   </si>
   <si>
-    <t>47,09%</t>
+    <t>50,65%</t>
   </si>
   <si>
     <t>86,51%</t>
   </si>
   <si>
-    <t>72,28%</t>
+    <t>73,01%</t>
+  </si>
+  <si>
+    <t>95,17%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>30,39%</t>
+  </si>
+  <si>
+    <t>17,05%</t>
+  </si>
+  <si>
+    <t>49,35%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>26,99%</t>
+  </si>
+  <si>
+    <t>88,8%</t>
+  </si>
+  <si>
+    <t>81,55%</t>
+  </si>
+  <si>
+    <t>94,59%</t>
+  </si>
+  <si>
+    <t>80,34%</t>
+  </si>
+  <si>
+    <t>68,96%</t>
+  </si>
+  <si>
+    <t>89,68%</t>
+  </si>
+  <si>
+    <t>85,34%</t>
+  </si>
+  <si>
+    <t>78,69%</t>
+  </si>
+  <si>
+    <t>90,51%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>18,45%</t>
+  </si>
+  <si>
+    <t>19,66%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>31,04%</t>
+  </si>
+  <si>
+    <t>14,66%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>21,31%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si ha consumido medicinas para el dolor y/o para bajar la fiebre recetados por el médico en 2012 (Tasa respuesta: 10,39%)</t>
+  </si>
+  <si>
+    <t>83,2%</t>
+  </si>
+  <si>
+    <t>49,33%</t>
+  </si>
+  <si>
+    <t>76,09%</t>
+  </si>
+  <si>
+    <t>47,05%</t>
+  </si>
+  <si>
+    <t>92,91%</t>
+  </si>
+  <si>
+    <t>79,32%</t>
+  </si>
+  <si>
+    <t>58,35%</t>
+  </si>
+  <si>
+    <t>91,67%</t>
+  </si>
+  <si>
+    <t>16,8%</t>
+  </si>
+  <si>
+    <t>50,67%</t>
+  </si>
+  <si>
+    <t>23,91%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>52,95%</t>
+  </si>
+  <si>
+    <t>20,68%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>41,65%</t>
+  </si>
+  <si>
+    <t>89,27%</t>
+  </si>
+  <si>
+    <t>80,16%</t>
+  </si>
+  <si>
+    <t>94,68%</t>
+  </si>
+  <si>
+    <t>77,99%</t>
+  </si>
+  <si>
+    <t>68,16%</t>
+  </si>
+  <si>
+    <t>86,15%</t>
+  </si>
+  <si>
+    <t>83,66%</t>
+  </si>
+  <si>
+    <t>75,92%</t>
+  </si>
+  <si>
+    <t>88,9%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>19,84%</t>
+  </si>
+  <si>
+    <t>22,01%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>31,84%</t>
+  </si>
+  <si>
+    <t>16,34%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>24,08%</t>
+  </si>
+  <si>
+    <t>83,34%</t>
   </si>
   <si>
     <t>95,32%</t>
   </si>
   <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>31,63%</t>
-  </si>
-  <si>
-    <t>17,05%</t>
-  </si>
-  <si>
-    <t>52,91%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
+    <t>92,46%</t>
+  </si>
+  <si>
+    <t>75,48%</t>
+  </si>
+  <si>
+    <t>88,34%</t>
+  </si>
+  <si>
+    <t>75,02%</t>
+  </si>
+  <si>
+    <t>16,66%</t>
   </si>
   <si>
     <t>4,68%</t>
   </si>
   <si>
-    <t>27,72%</t>
-  </si>
-  <si>
-    <t>88,8%</t>
-  </si>
-  <si>
-    <t>80,91%</t>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>24,52%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>24,98%</t>
+  </si>
+  <si>
+    <t>87,48%</t>
+  </si>
+  <si>
+    <t>79,83%</t>
+  </si>
+  <si>
+    <t>92,88%</t>
+  </si>
+  <si>
+    <t>80,9%</t>
+  </si>
+  <si>
+    <t>73,18%</t>
+  </si>
+  <si>
+    <t>87,11%</t>
+  </si>
+  <si>
+    <t>84,11%</t>
+  </si>
+  <si>
+    <t>78,47%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>20,17%</t>
+  </si>
+  <si>
+    <t>19,1%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>26,82%</t>
+  </si>
+  <si>
+    <t>15,89%</t>
+  </si>
+  <si>
+    <t>21,53%</t>
+  </si>
+  <si>
+    <t>Menores según si ha consumido medicinas para el dolor y/o para bajar la fiebre recetados por el médico en 2016 (Tasa respuesta: 8,04%)</t>
+  </si>
+  <si>
+    <t>79,25%</t>
+  </si>
+  <si>
+    <t>57,98%</t>
+  </si>
+  <si>
+    <t>26,92%</t>
+  </si>
+  <si>
+    <t>88,91%</t>
+  </si>
+  <si>
+    <t>77,04%</t>
+  </si>
+  <si>
+    <t>54,36%</t>
   </si>
   <si>
     <t>94,39%</t>
   </si>
   <si>
-    <t>80,34%</t>
-  </si>
-  <si>
-    <t>67,94%</t>
-  </si>
-  <si>
-    <t>88,63%</t>
-  </si>
-  <si>
-    <t>85,34%</t>
-  </si>
-  <si>
-    <t>78,47%</t>
-  </si>
-  <si>
-    <t>90,15%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>42,02%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>73,08%</t>
+  </si>
+  <si>
+    <t>22,96%</t>
   </si>
   <si>
     <t>5,61%</t>
   </si>
   <si>
-    <t>19,09%</t>
-  </si>
-  <si>
-    <t>19,66%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>32,06%</t>
-  </si>
-  <si>
-    <t>14,66%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>21,53%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según si ha consumido medicinas para el dolor y/o para bajar la fiebre recetados por el médico en 2012 (Tasa respuesta: 10,39%)</t>
-  </si>
-  <si>
-    <t>83,2%</t>
-  </si>
-  <si>
-    <t>56,08%</t>
-  </si>
-  <si>
-    <t>76,09%</t>
-  </si>
-  <si>
-    <t>46,04%</t>
-  </si>
-  <si>
-    <t>92,86%</t>
-  </si>
-  <si>
-    <t>79,32%</t>
-  </si>
-  <si>
-    <t>59,66%</t>
-  </si>
-  <si>
-    <t>92,33%</t>
-  </si>
-  <si>
-    <t>16,8%</t>
-  </si>
-  <si>
-    <t>43,92%</t>
-  </si>
-  <si>
-    <t>23,91%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>53,96%</t>
-  </si>
-  <si>
-    <t>20,68%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>40,34%</t>
-  </si>
-  <si>
-    <t>89,27%</t>
-  </si>
-  <si>
-    <t>81,07%</t>
-  </si>
-  <si>
-    <t>94,73%</t>
-  </si>
-  <si>
-    <t>77,99%</t>
-  </si>
-  <si>
-    <t>66,76%</t>
-  </si>
-  <si>
-    <t>86,57%</t>
-  </si>
-  <si>
-    <t>83,66%</t>
-  </si>
-  <si>
-    <t>76,87%</t>
-  </si>
-  <si>
-    <t>89,1%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>18,93%</t>
-  </si>
-  <si>
-    <t>22,01%</t>
-  </si>
-  <si>
-    <t>13,43%</t>
-  </si>
-  <si>
-    <t>33,24%</t>
-  </si>
-  <si>
-    <t>16,34%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>23,13%</t>
-  </si>
-  <si>
-    <t>83,34%</t>
-  </si>
-  <si>
-    <t>58,67%</t>
-  </si>
-  <si>
-    <t>95,37%</t>
-  </si>
-  <si>
-    <t>92,46%</t>
-  </si>
-  <si>
-    <t>73,26%</t>
-  </si>
-  <si>
-    <t>88,34%</t>
-  </si>
-  <si>
-    <t>74,84%</t>
-  </si>
-  <si>
-    <t>95,72%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>41,33%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>26,74%</t>
-  </si>
-  <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>25,16%</t>
-  </si>
-  <si>
-    <t>87,48%</t>
-  </si>
-  <si>
-    <t>80,61%</t>
-  </si>
-  <si>
-    <t>93,52%</t>
-  </si>
-  <si>
-    <t>80,9%</t>
-  </si>
-  <si>
-    <t>73,27%</t>
-  </si>
-  <si>
-    <t>87,76%</t>
-  </si>
-  <si>
-    <t>84,11%</t>
-  </si>
-  <si>
-    <t>78,0%</t>
-  </si>
-  <si>
-    <t>88,07%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>19,39%</t>
-  </si>
-  <si>
-    <t>19,1%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>26,73%</t>
-  </si>
-  <si>
-    <t>15,89%</t>
-  </si>
-  <si>
-    <t>11,93%</t>
-  </si>
-  <si>
-    <t>22,0%</t>
-  </si>
-  <si>
-    <t>Menores según si ha consumido medicinas para el dolor y/o para bajar la fiebre recetados por el médico en 2015 (Tasa respuesta: 8,04%)</t>
-  </si>
-  <si>
-    <t>79,25%</t>
-  </si>
-  <si>
-    <t>57,98%</t>
-  </si>
-  <si>
-    <t>24,39%</t>
-  </si>
-  <si>
-    <t>87,67%</t>
-  </si>
-  <si>
-    <t>77,04%</t>
-  </si>
-  <si>
-    <t>53,32%</t>
-  </si>
-  <si>
-    <t>93,71%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>42,02%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>75,61%</t>
-  </si>
-  <si>
-    <t>22,96%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>46,68%</t>
+    <t>45,64%</t>
   </si>
   <si>
     <t>89,01%</t>
   </si>
   <si>
-    <t>76,06%</t>
-  </si>
-  <si>
-    <t>95,83%</t>
+    <t>77,59%</t>
+  </si>
+  <si>
+    <t>95,92%</t>
   </si>
   <si>
     <t>89,25%</t>
   </si>
   <si>
-    <t>78,19%</t>
-  </si>
-  <si>
-    <t>96,3%</t>
+    <t>77,67%</t>
+  </si>
+  <si>
+    <t>95,86%</t>
   </si>
   <si>
     <t>89,14%</t>
   </si>
   <si>
-    <t>81,83%</t>
-  </si>
-  <si>
-    <t>94,27%</t>
+    <t>82,55%</t>
+  </si>
+  <si>
+    <t>94,43%</t>
   </si>
   <si>
     <t>10,99%</t>
   </si>
   <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>23,94%</t>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>22,41%</t>
   </si>
   <si>
     <t>10,75%</t>
   </si>
   <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>21,81%</t>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>22,33%</t>
   </si>
   <si>
     <t>10,86%</t>
   </si>
   <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>18,17%</t>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>17,45%</t>
   </si>
   <si>
     <t>91,66%</t>
   </si>
   <si>
-    <t>72,66%</t>
+    <t>72,63%</t>
   </si>
   <si>
     <t>79,38%</t>
   </si>
   <si>
-    <t>58,19%</t>
-  </si>
-  <si>
-    <t>92,1%</t>
+    <t>56,98%</t>
+  </si>
+  <si>
+    <t>92,38%</t>
   </si>
   <si>
     <t>85,48%</t>
   </si>
   <si>
-    <t>73,67%</t>
-  </si>
-  <si>
-    <t>93,91%</t>
+    <t>73,77%</t>
+  </si>
+  <si>
+    <t>93,92%</t>
   </si>
   <si>
     <t>8,34%</t>
   </si>
   <si>
-    <t>27,34%</t>
+    <t>27,37%</t>
   </si>
   <si>
     <t>20,62%</t>
   </si>
   <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>41,81%</t>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>43,02%</t>
   </si>
   <si>
     <t>14,52%</t>
   </si>
   <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>26,33%</t>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>26,23%</t>
   </si>
   <si>
     <t>91,01%</t>
   </si>
   <si>
-    <t>82,27%</t>
-  </si>
-  <si>
-    <t>96,21%</t>
+    <t>83,18%</t>
+  </si>
+  <si>
+    <t>96,07%</t>
   </si>
   <si>
     <t>83,28%</t>
   </si>
   <si>
-    <t>74,04%</t>
-  </si>
-  <si>
-    <t>89,92%</t>
+    <t>74,32%</t>
+  </si>
+  <si>
+    <t>90,14%</t>
   </si>
   <si>
     <t>86,8%</t>
   </si>
   <si>
-    <t>80,39%</t>
-  </si>
-  <si>
-    <t>91,24%</t>
+    <t>81,02%</t>
+  </si>
+  <si>
+    <t>91,44%</t>
   </si>
   <si>
     <t>8,99%</t>
   </si>
   <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>17,73%</t>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
   </si>
   <si>
     <t>16,72%</t>
   </si>
   <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>25,96%</t>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>25,68%</t>
   </si>
   <si>
     <t>13,2%</t>
   </si>
   <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>19,61%</t>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>18,98%</t>
   </si>
 </sst>
 </file>
@@ -1124,7 +1106,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F0C674B-BEEC-4E3B-970D-D00D7C5588E8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E48017D-A375-4469-97E0-66C50B2F0721}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2025,7 +2007,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DB21012-3736-4EE1-B4D3-84F5692DBA4F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D67E051E-D9F0-44E1-BF95-0CB4BC36FACA}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2599,10 +2581,10 @@
         <v>124</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>126</v>
       </c>
       <c r="H13" s="7">
         <v>23</v>
@@ -2611,10 +2593,10 @@
         <v>15840</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>11</v>
@@ -2626,13 +2608,13 @@
         <v>27617</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="P13" s="7" t="s">
-        <v>130</v>
-      </c>
       <c r="Q13" s="7" t="s">
-        <v>131</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2647,13 +2629,13 @@
         <v>2354</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>134</v>
+        <v>28</v>
       </c>
       <c r="H14" s="7">
         <v>2</v>
@@ -2662,13 +2644,13 @@
         <v>1292</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>16</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="M14" s="7">
         <v>5</v>
@@ -2677,13 +2659,13 @@
         <v>3647</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>138</v>
+        <v>32</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2751,13 +2733,13 @@
         <v>65240</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="H16" s="7">
         <v>90</v>
@@ -2766,13 +2748,13 @@
         <v>63680</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="M16" s="7">
         <v>183</v>
@@ -2781,13 +2763,13 @@
         <v>128920</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>148</v>
+        <v>128</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2802,13 +2784,13 @@
         <v>9333</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="H17" s="7">
         <v>22</v>
@@ -2817,13 +2799,13 @@
         <v>15031</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="M17" s="7">
         <v>35</v>
@@ -2832,13 +2814,13 @@
         <v>24364</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>156</v>
+        <v>134</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2914,7 +2896,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFFEBF76-606E-4254-BBB0-A0D1B42A45A3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E28B8F82-CF9D-43FD-A5DA-EE7262EBA6A1}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2931,7 +2913,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3178,7 +3160,7 @@
         <v>11</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>13</v>
@@ -3190,13 +3172,13 @@
         <v>3887</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="M7" s="7">
         <v>14</v>
@@ -3205,13 +3187,13 @@
         <v>9453</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3232,7 +3214,7 @@
         <v>17</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="H8" s="7">
         <v>4</v>
@@ -3241,13 +3223,13 @@
         <v>2817</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="M8" s="7">
         <v>4</v>
@@ -3256,13 +3238,13 @@
         <v>2817</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3330,13 +3312,13 @@
         <v>26805</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="H10" s="7">
         <v>54</v>
@@ -3345,13 +3327,13 @@
         <v>34848</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="M10" s="7">
         <v>94</v>
@@ -3360,13 +3342,13 @@
         <v>61653</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3381,13 +3363,13 @@
         <v>3309</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="H11" s="7">
         <v>6</v>
@@ -3396,13 +3378,13 @@
         <v>4199</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="M11" s="7">
         <v>11</v>
@@ -3411,13 +3393,13 @@
         <v>7508</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3485,10 +3467,10 @@
         <v>14666</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>11</v>
@@ -3500,13 +3482,13 @@
         <v>12878</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="M13" s="7">
         <v>41</v>
@@ -3515,13 +3497,13 @@
         <v>27543</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3536,13 +3518,13 @@
         <v>1334</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>16</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="H14" s="7">
         <v>5</v>
@@ -3551,13 +3533,13 @@
         <v>3345</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="M14" s="7">
         <v>7</v>
@@ -3566,13 +3548,13 @@
         <v>4680</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3640,13 +3622,13 @@
         <v>47036</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="H16" s="7">
         <v>80</v>
@@ -3655,13 +3637,13 @@
         <v>51613</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="M16" s="7">
         <v>149</v>
@@ -3670,13 +3652,13 @@
         <v>98649</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3691,13 +3673,13 @@
         <v>4643</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="H17" s="7">
         <v>15</v>
@@ -3706,13 +3688,13 @@
         <v>10362</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="M17" s="7">
         <v>22</v>
@@ -3721,13 +3703,13 @@
         <v>15005</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/IP16B02-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP16B02-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9001F1F7-F906-499D-935F-4B0FAD6F3FE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A843E105-6007-4518-BD21-A15FC691EDA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{41EE01E4-1258-4A0B-A120-51D3169AB3CD}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{0CCF2E20-C584-48B6-84BA-17BBC36F2B3A}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,15 +38,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="221">
   <si>
     <t>Menores según si ha consumido medicinas para el dolor y/o para bajar la fiebre recetados por el médico en 2007 (Tasa respuesta: 7,08%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -67,634 +67,640 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>-</t>
+    <t>Primarios</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
+    <t>82,71%</t>
+  </si>
+  <si>
+    <t>52,98%</t>
+  </si>
+  <si>
     <t>100,0%</t>
   </si>
   <si>
-    <t>22,85%</t>
+    <t>85,45%</t>
+  </si>
+  <si>
+    <t>55,98%</t>
+  </si>
+  <si>
+    <t>84,28%</t>
+  </si>
+  <si>
+    <t>63,87%</t>
+  </si>
+  <si>
+    <t>96,0%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>17,29%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>47,02%</t>
+  </si>
+  <si>
+    <t>14,55%</t>
+  </si>
+  <si>
+    <t>44,02%</t>
+  </si>
+  <si>
+    <t>15,72%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>36,13%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>0,0%</t>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>78,99%</t>
+  </si>
+  <si>
+    <t>64,88%</t>
+  </si>
+  <si>
+    <t>89,66%</t>
+  </si>
+  <si>
+    <t>89,97%</t>
+  </si>
+  <si>
+    <t>79,4%</t>
+  </si>
+  <si>
+    <t>96,38%</t>
+  </si>
+  <si>
+    <t>84,95%</t>
+  </si>
+  <si>
+    <t>75,48%</t>
+  </si>
+  <si>
+    <t>91,36%</t>
+  </si>
+  <si>
+    <t>21,01%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>35,12%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>20,6%</t>
+  </si>
+  <si>
+    <t>15,05%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>24,52%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>82,95%</t>
+  </si>
+  <si>
+    <t>45,86%</t>
+  </si>
+  <si>
+    <t>88,02%</t>
+  </si>
+  <si>
+    <t>69,66%</t>
+  </si>
+  <si>
+    <t>96,25%</t>
+  </si>
+  <si>
+    <t>86,51%</t>
+  </si>
+  <si>
+    <t>71,41%</t>
+  </si>
+  <si>
+    <t>94,49%</t>
+  </si>
+  <si>
+    <t>17,05%</t>
+  </si>
+  <si>
+    <t>54,14%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>30,34%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>28,59%</t>
+  </si>
+  <si>
+    <t>80,34%</t>
+  </si>
+  <si>
+    <t>68,76%</t>
+  </si>
+  <si>
+    <t>88,59%</t>
+  </si>
+  <si>
+    <t>88,66%</t>
+  </si>
+  <si>
+    <t>80,81%</t>
+  </si>
+  <si>
+    <t>94,57%</t>
+  </si>
+  <si>
+    <t>85,23%</t>
+  </si>
+  <si>
+    <t>78,67%</t>
+  </si>
+  <si>
+    <t>90,1%</t>
+  </si>
+  <si>
+    <t>19,66%</t>
+  </si>
+  <si>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>31,24%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>19,19%</t>
+  </si>
+  <si>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>21,33%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si ha consumido medicinas para el dolor y/o para bajar la fiebre recetados por el médico en 2012 (Tasa respuesta: 10,39%)</t>
+  </si>
+  <si>
+    <t>76,09%</t>
+  </si>
+  <si>
+    <t>46,13%</t>
+  </si>
+  <si>
+    <t>92,96%</t>
+  </si>
+  <si>
+    <t>83,2%</t>
+  </si>
+  <si>
+    <t>50,21%</t>
+  </si>
+  <si>
+    <t>79,32%</t>
+  </si>
+  <si>
+    <t>58,14%</t>
+  </si>
+  <si>
+    <t>92,05%</t>
+  </si>
+  <si>
+    <t>23,91%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>53,87%</t>
+  </si>
+  <si>
+    <t>16,8%</t>
+  </si>
+  <si>
+    <t>49,79%</t>
+  </si>
+  <si>
+    <t>20,68%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>41,86%</t>
+  </si>
+  <si>
+    <t>77,99%</t>
+  </si>
+  <si>
+    <t>67,87%</t>
+  </si>
+  <si>
+    <t>86,61%</t>
+  </si>
+  <si>
+    <t>89,27%</t>
+  </si>
+  <si>
+    <t>80,01%</t>
+  </si>
+  <si>
+    <t>94,99%</t>
+  </si>
+  <si>
+    <t>83,66%</t>
+  </si>
+  <si>
+    <t>77,06%</t>
+  </si>
+  <si>
+    <t>89,07%</t>
+  </si>
+  <si>
+    <t>22,01%</t>
+  </si>
+  <si>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>32,13%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>19,99%</t>
+  </si>
+  <si>
+    <t>16,34%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>22,94%</t>
+  </si>
+  <si>
+    <t>92,46%</t>
+  </si>
+  <si>
+    <t>77,29%</t>
+  </si>
+  <si>
+    <t>83,34%</t>
+  </si>
+  <si>
+    <t>60,87%</t>
+  </si>
+  <si>
+    <t>95,37%</t>
+  </si>
+  <si>
+    <t>88,34%</t>
+  </si>
+  <si>
+    <t>74,67%</t>
+  </si>
+  <si>
+    <t>95,78%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>22,71%</t>
+  </si>
+  <si>
+    <t>16,66%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>39,13%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>25,33%</t>
+  </si>
+  <si>
+    <t>80,9%</t>
+  </si>
+  <si>
+    <t>72,45%</t>
+  </si>
+  <si>
+    <t>87,43%</t>
+  </si>
+  <si>
+    <t>87,48%</t>
+  </si>
+  <si>
+    <t>79,6%</t>
+  </si>
+  <si>
+    <t>92,79%</t>
+  </si>
+  <si>
+    <t>84,11%</t>
+  </si>
+  <si>
+    <t>77,77%</t>
+  </si>
+  <si>
+    <t>88,87%</t>
+  </si>
+  <si>
+    <t>19,1%</t>
+  </si>
+  <si>
+    <t>12,57%</t>
+  </si>
+  <si>
+    <t>27,55%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>20,4%</t>
+  </si>
+  <si>
+    <t>15,89%</t>
+  </si>
+  <si>
+    <t>11,13%</t>
+  </si>
+  <si>
+    <t>22,23%</t>
+  </si>
+  <si>
+    <t>Menores según si ha consumido medicinas para el dolor y/o para bajar la fiebre recetados por el médico en 2016 (Tasa respuesta: 8,04%)</t>
+  </si>
+  <si>
+    <t>57,98%</t>
+  </si>
+  <si>
+    <t>25,71%</t>
+  </si>
+  <si>
+    <t>88,11%</t>
+  </si>
+  <si>
+    <t>79,25%</t>
+  </si>
+  <si>
+    <t>77,04%</t>
+  </si>
+  <si>
+    <t>50,27%</t>
+  </si>
+  <si>
+    <t>93,59%</t>
+  </si>
+  <si>
+    <t>42,02%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>74,29%</t>
   </si>
   <si>
     <t>0%</t>
   </si>
   <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>Primarios</t>
-  </si>
-  <si>
-    <t>85,45%</t>
-  </si>
-  <si>
-    <t>58,22%</t>
-  </si>
-  <si>
-    <t>82,71%</t>
-  </si>
-  <si>
-    <t>44,4%</t>
-  </si>
-  <si>
-    <t>84,28%</t>
-  </si>
-  <si>
-    <t>63,36%</t>
-  </si>
-  <si>
-    <t>95,82%</t>
-  </si>
-  <si>
-    <t>14,55%</t>
-  </si>
-  <si>
-    <t>41,78%</t>
-  </si>
-  <si>
-    <t>17,29%</t>
-  </si>
-  <si>
-    <t>55,6%</t>
-  </si>
-  <si>
-    <t>15,72%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>36,64%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>89,97%</t>
-  </si>
-  <si>
-    <t>79,48%</t>
-  </si>
-  <si>
-    <t>96,29%</t>
-  </si>
-  <si>
-    <t>78,99%</t>
-  </si>
-  <si>
-    <t>64,78%</t>
-  </si>
-  <si>
-    <t>90,68%</t>
-  </si>
-  <si>
-    <t>84,95%</t>
-  </si>
-  <si>
-    <t>77,03%</t>
-  </si>
-  <si>
-    <t>91,55%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>20,52%</t>
-  </si>
-  <si>
-    <t>21,01%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>35,22%</t>
-  </si>
-  <si>
-    <t>15,05%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>22,97%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>88,02%</t>
-  </si>
-  <si>
-    <t>69,61%</t>
-  </si>
-  <si>
-    <t>96,2%</t>
-  </si>
-  <si>
-    <t>82,95%</t>
-  </si>
-  <si>
-    <t>50,65%</t>
-  </si>
-  <si>
-    <t>86,51%</t>
-  </si>
-  <si>
-    <t>73,01%</t>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>22,96%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>49,73%</t>
+  </si>
+  <si>
+    <t>89,25%</t>
+  </si>
+  <si>
+    <t>77,37%</t>
   </si>
   <si>
     <t>95,17%</t>
   </si>
   <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>30,39%</t>
-  </si>
-  <si>
-    <t>17,05%</t>
-  </si>
-  <si>
-    <t>49,35%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
+    <t>89,01%</t>
+  </si>
+  <si>
+    <t>76,73%</t>
+  </si>
+  <si>
+    <t>95,97%</t>
+  </si>
+  <si>
+    <t>89,14%</t>
+  </si>
+  <si>
+    <t>82,3%</t>
+  </si>
+  <si>
+    <t>94,39%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
   </si>
   <si>
     <t>4,83%</t>
   </si>
   <si>
-    <t>26,99%</t>
-  </si>
-  <si>
-    <t>88,8%</t>
-  </si>
-  <si>
-    <t>81,55%</t>
-  </si>
-  <si>
-    <t>94,59%</t>
-  </si>
-  <si>
-    <t>80,34%</t>
-  </si>
-  <si>
-    <t>68,96%</t>
-  </si>
-  <si>
-    <t>89,68%</t>
-  </si>
-  <si>
-    <t>85,34%</t>
-  </si>
-  <si>
-    <t>78,69%</t>
-  </si>
-  <si>
-    <t>90,51%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>18,45%</t>
-  </si>
-  <si>
-    <t>19,66%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>31,04%</t>
-  </si>
-  <si>
-    <t>14,66%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>21,31%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según si ha consumido medicinas para el dolor y/o para bajar la fiebre recetados por el médico en 2012 (Tasa respuesta: 10,39%)</t>
-  </si>
-  <si>
-    <t>83,2%</t>
-  </si>
-  <si>
-    <t>49,33%</t>
-  </si>
-  <si>
-    <t>76,09%</t>
-  </si>
-  <si>
-    <t>47,05%</t>
-  </si>
-  <si>
-    <t>92,91%</t>
-  </si>
-  <si>
-    <t>79,32%</t>
-  </si>
-  <si>
-    <t>58,35%</t>
-  </si>
-  <si>
-    <t>91,67%</t>
-  </si>
-  <si>
-    <t>16,8%</t>
-  </si>
-  <si>
-    <t>50,67%</t>
-  </si>
-  <si>
-    <t>23,91%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>52,95%</t>
-  </si>
-  <si>
-    <t>20,68%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>41,65%</t>
-  </si>
-  <si>
-    <t>89,27%</t>
-  </si>
-  <si>
-    <t>80,16%</t>
-  </si>
-  <si>
-    <t>94,68%</t>
-  </si>
-  <si>
-    <t>77,99%</t>
-  </si>
-  <si>
-    <t>68,16%</t>
-  </si>
-  <si>
-    <t>86,15%</t>
-  </si>
-  <si>
-    <t>83,66%</t>
-  </si>
-  <si>
-    <t>75,92%</t>
-  </si>
-  <si>
-    <t>88,9%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>19,84%</t>
-  </si>
-  <si>
-    <t>22,01%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>31,84%</t>
-  </si>
-  <si>
-    <t>16,34%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>24,08%</t>
-  </si>
-  <si>
-    <t>83,34%</t>
-  </si>
-  <si>
-    <t>95,32%</t>
-  </si>
-  <si>
-    <t>92,46%</t>
-  </si>
-  <si>
-    <t>75,48%</t>
-  </si>
-  <si>
-    <t>88,34%</t>
-  </si>
-  <si>
-    <t>75,02%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>24,52%</t>
-  </si>
-  <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>24,98%</t>
-  </si>
-  <si>
-    <t>87,48%</t>
-  </si>
-  <si>
-    <t>79,83%</t>
-  </si>
-  <si>
-    <t>92,88%</t>
-  </si>
-  <si>
-    <t>80,9%</t>
-  </si>
-  <si>
-    <t>73,18%</t>
-  </si>
-  <si>
-    <t>87,11%</t>
-  </si>
-  <si>
-    <t>84,11%</t>
-  </si>
-  <si>
-    <t>78,47%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>20,17%</t>
-  </si>
-  <si>
-    <t>19,1%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>26,82%</t>
-  </si>
-  <si>
-    <t>15,89%</t>
-  </si>
-  <si>
-    <t>21,53%</t>
-  </si>
-  <si>
-    <t>Menores según si ha consumido medicinas para el dolor y/o para bajar la fiebre recetados por el médico en 2016 (Tasa respuesta: 8,04%)</t>
-  </si>
-  <si>
-    <t>79,25%</t>
-  </si>
-  <si>
-    <t>57,98%</t>
-  </si>
-  <si>
-    <t>26,92%</t>
-  </si>
-  <si>
-    <t>88,91%</t>
-  </si>
-  <si>
-    <t>77,04%</t>
-  </si>
-  <si>
-    <t>54,36%</t>
-  </si>
-  <si>
-    <t>94,39%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>42,02%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>73,08%</t>
-  </si>
-  <si>
-    <t>22,96%</t>
+    <t>22,63%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>23,27%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
   </si>
   <si>
     <t>5,61%</t>
   </si>
   <si>
-    <t>45,64%</t>
-  </si>
-  <si>
-    <t>89,01%</t>
-  </si>
-  <si>
-    <t>77,59%</t>
-  </si>
-  <si>
-    <t>95,92%</t>
-  </si>
-  <si>
-    <t>89,25%</t>
-  </si>
-  <si>
-    <t>77,67%</t>
-  </si>
-  <si>
-    <t>95,86%</t>
-  </si>
-  <si>
-    <t>89,14%</t>
-  </si>
-  <si>
-    <t>82,55%</t>
-  </si>
-  <si>
-    <t>94,43%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>22,41%</t>
-  </si>
-  <si>
-    <t>10,75%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>22,33%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>17,45%</t>
+    <t>17,7%</t>
+  </si>
+  <si>
+    <t>79,38%</t>
+  </si>
+  <si>
+    <t>59,88%</t>
+  </si>
+  <si>
+    <t>91,58%</t>
   </si>
   <si>
     <t>91,66%</t>
   </si>
   <si>
-    <t>72,63%</t>
-  </si>
-  <si>
-    <t>79,38%</t>
-  </si>
-  <si>
-    <t>56,98%</t>
-  </si>
-  <si>
-    <t>92,38%</t>
+    <t>72,62%</t>
   </si>
   <si>
     <t>85,48%</t>
   </si>
   <si>
-    <t>73,77%</t>
-  </si>
-  <si>
-    <t>93,92%</t>
+    <t>74,74%</t>
+  </si>
+  <si>
+    <t>94,31%</t>
+  </si>
+  <si>
+    <t>20,62%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>40,12%</t>
   </si>
   <si>
     <t>8,34%</t>
   </si>
   <si>
-    <t>27,37%</t>
-  </si>
-  <si>
-    <t>20,62%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>43,02%</t>
+    <t>27,38%</t>
   </si>
   <si>
     <t>14,52%</t>
   </si>
   <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>26,23%</t>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>25,26%</t>
+  </si>
+  <si>
+    <t>83,28%</t>
+  </si>
+  <si>
+    <t>73,84%</t>
+  </si>
+  <si>
+    <t>90,06%</t>
   </si>
   <si>
     <t>91,01%</t>
   </si>
   <si>
-    <t>83,18%</t>
-  </si>
-  <si>
-    <t>96,07%</t>
-  </si>
-  <si>
-    <t>83,28%</t>
-  </si>
-  <si>
-    <t>74,32%</t>
-  </si>
-  <si>
-    <t>90,14%</t>
+    <t>82,35%</t>
+  </si>
+  <si>
+    <t>96,15%</t>
   </si>
   <si>
     <t>86,8%</t>
   </si>
   <si>
-    <t>81,02%</t>
-  </si>
-  <si>
-    <t>91,44%</t>
+    <t>81,04%</t>
+  </si>
+  <si>
+    <t>91,57%</t>
+  </si>
+  <si>
+    <t>16,72%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>26,16%</t>
   </si>
   <si>
     <t>8,99%</t>
   </si>
   <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>16,82%</t>
-  </si>
-  <si>
-    <t>16,72%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>25,68%</t>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>17,65%</t>
   </si>
   <si>
     <t>13,2%</t>
   </si>
   <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>18,98%</t>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>18,96%</t>
   </si>
 </sst>
 </file>
@@ -1106,8 +1112,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E48017D-A375-4469-97E0-66C50B2F0721}">
-  <dimension ref="A1:Q19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B95236C-4537-4336-810D-0EF60C3BFCD4}">
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1224,10 +1230,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D4" s="7">
-        <v>726</v>
+        <v>5752</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1239,81 +1245,85 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>12</v>
+      </c>
+      <c r="I4" s="7">
+        <v>7979</v>
+      </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M4" s="7">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="N4" s="7">
-        <v>726</v>
+        <v>13731</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>1203</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="I5" s="7">
+        <v>1359</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N5" s="7">
-        <v>0</v>
+        <v>2562</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1322,151 +1332,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D6" s="7">
-        <v>726</v>
+        <v>6955</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>14</v>
+      </c>
+      <c r="I6" s="7">
+        <v>9338</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="M6" s="7">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="N6" s="7">
-        <v>726</v>
+        <v>16293</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="D7" s="7">
-        <v>7979</v>
+        <v>20815</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="H7" s="7">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="I7" s="7">
-        <v>5752</v>
+        <v>28205</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="M7" s="7">
-        <v>20</v>
+        <v>74</v>
       </c>
       <c r="N7" s="7">
-        <v>13731</v>
+        <v>49020</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C8" s="7">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D8" s="7">
-        <v>1359</v>
+        <v>5538</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="H8" s="7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I8" s="7">
-        <v>1203</v>
+        <v>3144</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="M8" s="7">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="N8" s="7">
-        <v>2562</v>
+        <v>8682</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1475,153 +1487,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="D9" s="7">
-        <v>9338</v>
+        <v>26353</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="H9" s="7">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="I9" s="7">
-        <v>6955</v>
+        <v>31349</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="M9" s="7">
-        <v>24</v>
+        <v>87</v>
       </c>
       <c r="N9" s="7">
-        <v>16293</v>
+        <v>57702</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="D10" s="7">
-        <v>28205</v>
+        <v>6054</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="H10" s="7">
+        <v>23</v>
+      </c>
+      <c r="I10" s="7">
+        <v>15237</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="M10" s="7">
         <v>32</v>
       </c>
-      <c r="I10" s="7">
-        <v>20815</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="M10" s="7">
-        <v>74</v>
-      </c>
       <c r="N10" s="7">
-        <v>49020</v>
+        <v>21291</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C11" s="7">
+        <v>2</v>
+      </c>
+      <c r="D11" s="7">
+        <v>1245</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="H11" s="7">
+        <v>3</v>
+      </c>
+      <c r="I11" s="7">
+        <v>2074</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="M11" s="7">
         <v>5</v>
       </c>
-      <c r="D11" s="7">
-        <v>3144</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H11" s="7">
-        <v>8</v>
-      </c>
-      <c r="I11" s="7">
-        <v>5538</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="M11" s="7">
-        <v>13</v>
-      </c>
       <c r="N11" s="7">
-        <v>8682</v>
+        <v>3319</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1630,153 +1642,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="D12" s="7">
-        <v>31349</v>
+        <v>7299</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="H12" s="7">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="I12" s="7">
-        <v>26353</v>
+        <v>17311</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="M12" s="7">
-        <v>87</v>
+        <v>37</v>
       </c>
       <c r="N12" s="7">
-        <v>57702</v>
+        <v>24610</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>53</v>
+        <v>3</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="D13" s="7">
-        <v>15237</v>
+        <v>32622</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="H13" s="7">
-        <v>9</v>
+        <v>77</v>
       </c>
       <c r="I13" s="7">
-        <v>6054</v>
+        <v>51421</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>11</v>
+        <v>70</v>
       </c>
       <c r="M13" s="7">
-        <v>32</v>
+        <v>126</v>
       </c>
       <c r="N13" s="7">
-        <v>21291</v>
+        <v>84043</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C14" s="7">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D14" s="7">
-        <v>2074</v>
+        <v>7985</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="H14" s="7">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="I14" s="7">
-        <v>1245</v>
+        <v>6577</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>16</v>
+        <v>78</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="M14" s="7">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="N14" s="7">
-        <v>3319</v>
+        <v>14562</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1785,216 +1797,60 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="D15" s="7">
-        <v>17311</v>
+        <v>40607</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="H15" s="7">
-        <v>11</v>
+        <v>87</v>
       </c>
       <c r="I15" s="7">
-        <v>7299</v>
+        <v>57998</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="M15" s="7">
-        <v>37</v>
+        <v>148</v>
       </c>
       <c r="N15" s="7">
-        <v>24610</v>
+        <v>98605</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="7">
-        <v>78</v>
-      </c>
-      <c r="D16" s="7">
-        <v>52148</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="H16" s="7">
-        <v>49</v>
-      </c>
-      <c r="I16" s="7">
-        <v>32622</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="M16" s="7">
-        <v>127</v>
-      </c>
-      <c r="N16" s="7">
-        <v>84770</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="7">
-        <v>10</v>
-      </c>
-      <c r="D17" s="7">
-        <v>6577</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="H17" s="7">
-        <v>12</v>
-      </c>
-      <c r="I17" s="7">
-        <v>7985</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="K17" s="7" t="s">
+      <c r="A16" t="s">
         <v>83</v>
       </c>
-      <c r="L17" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="M17" s="7">
-        <v>22</v>
-      </c>
-      <c r="N17" s="7">
-        <v>14562</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="7">
-        <v>88</v>
-      </c>
-      <c r="D18" s="7">
-        <v>58725</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H18" s="7">
-        <v>61</v>
-      </c>
-      <c r="I18" s="7">
-        <v>40607</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M18" s="7">
-        <v>149</v>
-      </c>
-      <c r="N18" s="7">
-        <v>99332</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>88</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2007,8 +1863,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D67E051E-D9F0-44E1-BF95-0CB4BC36FACA}">
-  <dimension ref="A1:Q19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB3C6C0A-CEC8-4639-BBC8-310D09A00111}">
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2024,7 +1880,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2125,88 +1981,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>11</v>
+      </c>
+      <c r="D4" s="7">
+        <v>7446</v>
+      </c>
       <c r="E4" s="7" t="s">
-        <v>14</v>
+        <v>85</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>14</v>
+        <v>86</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>14</v>
+        <v>87</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>10</v>
+      </c>
+      <c r="I4" s="7">
+        <v>6778</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>14</v>
+        <v>88</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>14</v>
+        <v>89</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>21</v>
+      </c>
+      <c r="N4" s="7">
+        <v>14224</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>14</v>
+        <v>90</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>14</v>
+        <v>91</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>14</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>3</v>
+      </c>
+      <c r="D5" s="7">
+        <v>2340</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>14</v>
+        <v>93</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>14</v>
+        <v>94</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>14</v>
+        <v>95</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="I5" s="7">
+        <v>1369</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>14</v>
+        <v>96</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>14</v>
+        <v>97</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>5</v>
+      </c>
+      <c r="N5" s="7">
+        <v>3709</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>14</v>
+        <v>98</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>14</v>
+        <v>99</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>14</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2215,147 +2083,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>14</v>
+      </c>
+      <c r="D6" s="7">
+        <v>9786</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>12</v>
+      </c>
+      <c r="I6" s="7">
+        <v>8147</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>26</v>
+      </c>
+      <c r="N6" s="7">
+        <v>17933</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="D7" s="7">
-        <v>6778</v>
+        <v>40395</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>11</v>
+        <v>103</v>
       </c>
       <c r="H7" s="7">
-        <v>11</v>
+        <v>68</v>
       </c>
       <c r="I7" s="7">
-        <v>7446</v>
+        <v>46684</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="M7" s="7">
-        <v>21</v>
+        <v>124</v>
       </c>
       <c r="N7" s="7">
-        <v>14224</v>
+        <v>87079</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C8" s="7">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="D8" s="7">
-        <v>1369</v>
+        <v>11398</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>16</v>
+        <v>111</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="H8" s="7">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I8" s="7">
-        <v>2340</v>
+        <v>5610</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="M8" s="7">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="N8" s="7">
-        <v>3709</v>
+        <v>17008</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2364,153 +2238,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>12</v>
+        <v>73</v>
       </c>
       <c r="D9" s="7">
-        <v>8147</v>
+        <v>51793</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="H9" s="7">
-        <v>14</v>
+        <v>76</v>
       </c>
       <c r="I9" s="7">
-        <v>9786</v>
+        <v>52294</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="M9" s="7">
-        <v>26</v>
+        <v>149</v>
       </c>
       <c r="N9" s="7">
-        <v>17933</v>
+        <v>104087</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>68</v>
+        <v>23</v>
       </c>
       <c r="D10" s="7">
-        <v>46684</v>
+        <v>15840</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>108</v>
+        <v>13</v>
       </c>
       <c r="H10" s="7">
-        <v>56</v>
+        <v>15</v>
       </c>
       <c r="I10" s="7">
-        <v>40395</v>
+        <v>11778</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="M10" s="7">
+        <v>38</v>
+      </c>
+      <c r="N10" s="7">
+        <v>27617</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="N10" s="7">
-        <v>87079</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>112</v>
-      </c>
       <c r="P10" s="7" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C11" s="7">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D11" s="7">
-        <v>5610</v>
+        <v>1292</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>116</v>
+        <v>21</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="H11" s="7">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="I11" s="7">
-        <v>11398</v>
+        <v>2354</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="M11" s="7">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="N11" s="7">
-        <v>17008</v>
+        <v>3647</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2519,153 +2393,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>76</v>
+        <v>25</v>
       </c>
       <c r="D12" s="7">
-        <v>52294</v>
+        <v>17132</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="H12" s="7">
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="I12" s="7">
-        <v>51793</v>
+        <v>14132</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="M12" s="7">
-        <v>149</v>
+        <v>43</v>
       </c>
       <c r="N12" s="7">
-        <v>104087</v>
+        <v>31264</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>53</v>
+        <v>3</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>15</v>
+        <v>90</v>
       </c>
       <c r="D13" s="7">
-        <v>11778</v>
+        <v>63680</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>21</v>
+        <v>136</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="H13" s="7">
-        <v>23</v>
+        <v>93</v>
       </c>
       <c r="I13" s="7">
-        <v>15840</v>
+        <v>65240</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>11</v>
+        <v>140</v>
       </c>
       <c r="M13" s="7">
-        <v>38</v>
+        <v>183</v>
       </c>
       <c r="N13" s="7">
-        <v>27617</v>
+        <v>128920</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>26</v>
+        <v>143</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C14" s="7">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="D14" s="7">
-        <v>2354</v>
+        <v>15031</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>28</v>
+        <v>146</v>
       </c>
       <c r="H14" s="7">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="I14" s="7">
-        <v>1292</v>
+        <v>9333</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>16</v>
+        <v>148</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>133</v>
+        <v>149</v>
       </c>
       <c r="M14" s="7">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="N14" s="7">
-        <v>3647</v>
+        <v>24364</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>134</v>
+        <v>150</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>32</v>
+        <v>151</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>135</v>
+        <v>152</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2674,216 +2548,60 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>18</v>
+        <v>112</v>
       </c>
       <c r="D15" s="7">
-        <v>14132</v>
+        <v>78711</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="H15" s="7">
-        <v>25</v>
+        <v>106</v>
       </c>
       <c r="I15" s="7">
-        <v>17132</v>
+        <v>74573</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="M15" s="7">
-        <v>43</v>
+        <v>218</v>
       </c>
       <c r="N15" s="7">
-        <v>31264</v>
+        <v>153284</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="7">
-        <v>93</v>
-      </c>
-      <c r="D16" s="7">
-        <v>65240</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="H16" s="7">
-        <v>90</v>
-      </c>
-      <c r="I16" s="7">
-        <v>63680</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="M16" s="7">
-        <v>183</v>
-      </c>
-      <c r="N16" s="7">
-        <v>128920</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="7">
-        <v>13</v>
-      </c>
-      <c r="D17" s="7">
-        <v>9333</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="H17" s="7">
-        <v>22</v>
-      </c>
-      <c r="I17" s="7">
-        <v>15031</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="M17" s="7">
-        <v>35</v>
-      </c>
-      <c r="N17" s="7">
-        <v>24364</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="7">
-        <v>106</v>
-      </c>
-      <c r="D18" s="7">
-        <v>74573</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H18" s="7">
-        <v>112</v>
-      </c>
-      <c r="I18" s="7">
-        <v>78711</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M18" s="7">
-        <v>218</v>
-      </c>
-      <c r="N18" s="7">
-        <v>153284</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>88</v>
+      <c r="A16" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2896,8 +2614,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E28B8F82-CF9D-43FD-A5DA-EE7262EBA6A1}">
-  <dimension ref="A1:Q19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98684B26-AA71-44D6-9FE4-C54FA5CBA9DB}">
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2913,7 +2631,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3014,88 +2732,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>6</v>
+      </c>
+      <c r="D4" s="7">
+        <v>3887</v>
+      </c>
       <c r="E4" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="H4" s="7">
+        <v>8</v>
+      </c>
+      <c r="I4" s="7">
+        <v>5565</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="M4" s="7">
         <v>14</v>
       </c>
-      <c r="F4" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+      <c r="N4" s="7">
+        <v>9453</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>14</v>
+        <v>158</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>14</v>
+        <v>159</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>14</v>
+        <v>160</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>4</v>
+      </c>
+      <c r="D5" s="7">
+        <v>2817</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>14</v>
+        <v>161</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>14</v>
+        <v>162</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>14</v>
+        <v>163</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
-      <c r="I5" s="7"/>
+      <c r="I5" s="7">
+        <v>0</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>14</v>
+        <v>164</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>14</v>
+        <v>165</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>4</v>
+      </c>
+      <c r="N5" s="7">
+        <v>2817</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>14</v>
+        <v>166</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>14</v>
+        <v>167</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>14</v>
+        <v>168</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3104,147 +2834,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>10</v>
+      </c>
+      <c r="D6" s="7">
+        <v>6704</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>8</v>
+      </c>
+      <c r="I6" s="7">
+        <v>5565</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>18</v>
+      </c>
+      <c r="N6" s="7">
+        <v>12270</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="D7" s="7">
-        <v>5565</v>
+        <v>34848</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>11</v>
+        <v>169</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>153</v>
+        <v>170</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>13</v>
+        <v>171</v>
       </c>
       <c r="H7" s="7">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="I7" s="7">
-        <v>3887</v>
+        <v>26805</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>155</v>
+        <v>173</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="M7" s="7">
-        <v>14</v>
+        <v>94</v>
       </c>
       <c r="N7" s="7">
-        <v>9453</v>
+        <v>61653</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>158</v>
+        <v>176</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>159</v>
+        <v>177</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C8" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D8" s="7">
-        <v>0</v>
+        <v>4199</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>16</v>
+        <v>178</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>17</v>
+        <v>179</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="H8" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I8" s="7">
-        <v>2817</v>
+        <v>3309</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>161</v>
+        <v>181</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>163</v>
+        <v>183</v>
       </c>
       <c r="M8" s="7">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="N8" s="7">
-        <v>2817</v>
+        <v>7508</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>164</v>
+        <v>184</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>165</v>
+        <v>185</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>166</v>
+        <v>186</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3253,153 +2989,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="D9" s="7">
-        <v>5565</v>
+        <v>39047</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="H9" s="7">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="I9" s="7">
-        <v>6704</v>
+        <v>30114</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="M9" s="7">
-        <v>18</v>
+        <v>105</v>
       </c>
       <c r="N9" s="7">
-        <v>12270</v>
+        <v>69161</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="D10" s="7">
-        <v>26805</v>
+        <v>12878</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>167</v>
+        <v>187</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>168</v>
+        <v>188</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>169</v>
+        <v>189</v>
       </c>
       <c r="H10" s="7">
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="I10" s="7">
-        <v>34848</v>
+        <v>14666</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>171</v>
+        <v>191</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>172</v>
+        <v>13</v>
       </c>
       <c r="M10" s="7">
-        <v>94</v>
+        <v>41</v>
       </c>
       <c r="N10" s="7">
-        <v>61653</v>
+        <v>27543</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>173</v>
+        <v>192</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>174</v>
+        <v>193</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>175</v>
+        <v>194</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C11" s="7">
         <v>5</v>
       </c>
       <c r="D11" s="7">
-        <v>3309</v>
+        <v>3345</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>176</v>
+        <v>195</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>177</v>
+        <v>196</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>178</v>
+        <v>197</v>
       </c>
       <c r="H11" s="7">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I11" s="7">
-        <v>4199</v>
+        <v>1334</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>179</v>
+        <v>198</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>180</v>
+        <v>21</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>181</v>
+        <v>199</v>
       </c>
       <c r="M11" s="7">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="N11" s="7">
-        <v>7508</v>
+        <v>4680</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>182</v>
+        <v>200</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>183</v>
+        <v>201</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>184</v>
+        <v>202</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3408,153 +3144,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="D12" s="7">
-        <v>30114</v>
+        <v>16223</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="H12" s="7">
-        <v>60</v>
+        <v>23</v>
       </c>
       <c r="I12" s="7">
-        <v>39047</v>
+        <v>16000</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="M12" s="7">
-        <v>105</v>
+        <v>48</v>
       </c>
       <c r="N12" s="7">
-        <v>69161</v>
+        <v>32223</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>53</v>
+        <v>3</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>21</v>
+        <v>80</v>
       </c>
       <c r="D13" s="7">
-        <v>14666</v>
+        <v>51613</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>185</v>
+        <v>203</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>186</v>
+        <v>204</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>11</v>
+        <v>205</v>
       </c>
       <c r="H13" s="7">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="I13" s="7">
-        <v>12878</v>
+        <v>47036</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>187</v>
+        <v>206</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>188</v>
+        <v>207</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>189</v>
+        <v>208</v>
       </c>
       <c r="M13" s="7">
-        <v>41</v>
+        <v>149</v>
       </c>
       <c r="N13" s="7">
-        <v>27543</v>
+        <v>98649</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>191</v>
+        <v>210</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>192</v>
+        <v>211</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="7">
         <v>15</v>
       </c>
-      <c r="C14" s="7">
-        <v>2</v>
-      </c>
       <c r="D14" s="7">
-        <v>1334</v>
+        <v>10362</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>193</v>
+        <v>212</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>16</v>
+        <v>213</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>194</v>
+        <v>214</v>
       </c>
       <c r="H14" s="7">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I14" s="7">
-        <v>3345</v>
+        <v>4643</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>195</v>
+        <v>215</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>197</v>
+        <v>217</v>
       </c>
       <c r="M14" s="7">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="N14" s="7">
-        <v>4680</v>
+        <v>15005</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>198</v>
+        <v>218</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>199</v>
+        <v>219</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>200</v>
+        <v>220</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3563,216 +3299,60 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>23</v>
+        <v>95</v>
       </c>
       <c r="D15" s="7">
-        <v>16000</v>
+        <v>61975</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="H15" s="7">
-        <v>25</v>
+        <v>76</v>
       </c>
       <c r="I15" s="7">
-        <v>16223</v>
+        <v>51679</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="M15" s="7">
-        <v>48</v>
+        <v>171</v>
       </c>
       <c r="N15" s="7">
-        <v>32223</v>
+        <v>113654</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="7">
-        <v>69</v>
-      </c>
-      <c r="D16" s="7">
-        <v>47036</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="H16" s="7">
-        <v>80</v>
-      </c>
-      <c r="I16" s="7">
-        <v>51613</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="M16" s="7">
-        <v>149</v>
-      </c>
-      <c r="N16" s="7">
-        <v>98649</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="7">
-        <v>7</v>
-      </c>
-      <c r="D17" s="7">
-        <v>4643</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="H17" s="7">
-        <v>15</v>
-      </c>
-      <c r="I17" s="7">
-        <v>10362</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="M17" s="7">
-        <v>22</v>
-      </c>
-      <c r="N17" s="7">
-        <v>15005</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="7">
-        <v>76</v>
-      </c>
-      <c r="D18" s="7">
-        <v>51679</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H18" s="7">
-        <v>95</v>
-      </c>
-      <c r="I18" s="7">
-        <v>61975</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M18" s="7">
-        <v>171</v>
-      </c>
-      <c r="N18" s="7">
-        <v>113654</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>88</v>
+      <c r="A16" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
